--- a/Sneaker/wwwroot/files/Test.xlsx
+++ b/Sneaker/wwwroot/files/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tranh\OneDrive\Desktop\InfoProduct\FileProduct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tranh\OneDrive\Desktop\New folder\InfoProduct\FileProduct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F921A06D-8D73-457B-BD26-BC7D21C6620F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D198008-4922-4153-9BB1-427B58E3703D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{219EBA51-DF84-4563-8B14-02987CA11E4B}"/>
+    <workbookView xWindow="1410" yWindow="960" windowWidth="23490" windowHeight="13965" xr2:uid="{219EBA51-DF84-4563-8B14-02987CA11E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Title</t>
   </si>
@@ -66,94 +66,91 @@
     <t>ChangeStatusBy</t>
   </si>
   <si>
+    <t>★★★★★</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>HOT</t>
+  </si>
+  <si>
+    <t>CreateAt</t>
+  </si>
+  <si>
+    <t>UpdateAt</t>
+  </si>
+  <si>
+    <t>https://www.reebok.com/us/cardi-b-club-c-womens-shoes/GX7632.html</t>
+  </si>
+  <si>
+    <t>Cardi B Club C Women's Shoes</t>
+  </si>
+  <si>
+    <t>https://assets.reebok.com/images/w_383,h_383,f_auto,q_auto:sensitive,fl_lossy/29c635bd70e64df2877cac7e002b7a12_9366/cardi-b-club-c-womens-shoes.jpg</t>
+  </si>
+  <si>
+    <t>https://assets.reebok.com/images/w_383,h_383,f_auto,q_auto:sensitive,fl_lossy/72847afc3ab54ff48205ac7d000f1946_9366/cardi-b-club-c-womens-shoes.jpg</t>
+  </si>
+  <si>
+    <t>Women Classics</t>
+  </si>
+  <si>
+    <t>6 colors</t>
+  </si>
+  <si>
+    <t>https://www.reebok.com/us/club-c-85-vintage-mens-shoes/V67899.html</t>
+  </si>
+  <si>
+    <t>Club C 85 Vintage Men's Shoes</t>
+  </si>
+  <si>
+    <t>https://assets.reebok.com/images/w_383,h_383,f_auto,q_auto:sensitive,fl_lossy/3108369a42714ba6a9c2aa99017b457a_9366/club-c-85-vintage-mens-shoes.jpg</t>
+  </si>
+  <si>
+    <t>https://assets.reebok.com/images/w_383,h_383,f_auto,q_auto:sensitive,fl_lossy/94b58f6f42004f03949faa99017b30fb_9366/club-c-85-vintage-mens-shoes.jpg</t>
+  </si>
+  <si>
+    <t>Men Classics</t>
+  </si>
+  <si>
+    <t>2 colors</t>
+  </si>
+  <si>
+    <t>https://www.reebok.com/us/club-c-85-model-vintage-womens-shoes/BS8242.html</t>
+  </si>
+  <si>
+    <t>Club C 85 Model Vintage Women's Shoes</t>
+  </si>
+  <si>
+    <t>https://assets.reebok.com/images/w_383,h_383,f_auto,q_auto:sensitive,fl_lossy/fcb24c3117d74573941aaa22011b7f69_9366/club-c-85-model-vintage-womens-shoes.jpg</t>
+  </si>
+  <si>
+    <t>https://assets.reebok.com/images/w_383,h_383,f_auto,q_auto:sensitive,fl_lossy/842b71324e4649b4819baa22011b68f2_9366/club-c-85-model-vintage-womens-shoes.jpg</t>
+  </si>
+  <si>
+    <t>7 colors</t>
+  </si>
+  <si>
+    <t>https://www.reebok.com/us/nano-x1-grit-mens-training-shoes/GX0523.html</t>
+  </si>
+  <si>
+    <t>Nano X1 Grit Men's Training Shoes</t>
+  </si>
+  <si>
+    <t>https://assets.reebok.com/images/w_383,h_383,f_auto,q_auto:sensitive,fl_lossy/1cff45ca4d1444c4b21cacb800b77c57_9366/nano-x1-grit-mens-training-shoes.jpg</t>
+  </si>
+  <si>
+    <t>https://assets.reebok.com/images/w_383,h_383,f_auto,q_auto:sensitive,fl_lossy/746d73af8810425283eeacb800a77200_9366/nano-x1-grit-mens-training-shoes.jpg</t>
+  </si>
+  <si>
+    <t>Men Cross Training</t>
+  </si>
+  <si>
     <t>TrademarkId</t>
-  </si>
-  <si>
-    <t>★★★★★</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>HOT</t>
-  </si>
-  <si>
-    <t>CreateAt</t>
-  </si>
-  <si>
-    <t>UpdateAt</t>
-  </si>
-  <si>
-    <t>https://www.reebok.com/us/cardi-b-club-c-womens-shoes/GX7632.html</t>
-  </si>
-  <si>
-    <t>Cardi B Club C Women's Shoes</t>
-  </si>
-  <si>
-    <t>https://assets.reebok.com/images/w_383,h_383,f_auto,q_auto:sensitive,fl_lossy/29c635bd70e64df2877cac7e002b7a12_9366/cardi-b-club-c-womens-shoes.jpg</t>
-  </si>
-  <si>
-    <t>https://assets.reebok.com/images/w_383,h_383,f_auto,q_auto:sensitive,fl_lossy/72847afc3ab54ff48205ac7d000f1946_9366/cardi-b-club-c-womens-shoes.jpg</t>
-  </si>
-  <si>
-    <t>Women Classics</t>
-  </si>
-  <si>
-    <t>6 colors</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>https://www.reebok.com/us/club-c-85-vintage-mens-shoes/V67899.html</t>
-  </si>
-  <si>
-    <t>Club C 85 Vintage Men's Shoes</t>
-  </si>
-  <si>
-    <t>https://assets.reebok.com/images/w_383,h_383,f_auto,q_auto:sensitive,fl_lossy/3108369a42714ba6a9c2aa99017b457a_9366/club-c-85-vintage-mens-shoes.jpg</t>
-  </si>
-  <si>
-    <t>https://assets.reebok.com/images/w_383,h_383,f_auto,q_auto:sensitive,fl_lossy/94b58f6f42004f03949faa99017b30fb_9366/club-c-85-vintage-mens-shoes.jpg</t>
-  </si>
-  <si>
-    <t>Men Classics</t>
-  </si>
-  <si>
-    <t>2 colors</t>
-  </si>
-  <si>
-    <t>https://www.reebok.com/us/club-c-85-model-vintage-womens-shoes/BS8242.html</t>
-  </si>
-  <si>
-    <t>Club C 85 Model Vintage Women's Shoes</t>
-  </si>
-  <si>
-    <t>https://assets.reebok.com/images/w_383,h_383,f_auto,q_auto:sensitive,fl_lossy/fcb24c3117d74573941aaa22011b7f69_9366/club-c-85-model-vintage-womens-shoes.jpg</t>
-  </si>
-  <si>
-    <t>https://assets.reebok.com/images/w_383,h_383,f_auto,q_auto:sensitive,fl_lossy/842b71324e4649b4819baa22011b68f2_9366/club-c-85-model-vintage-womens-shoes.jpg</t>
-  </si>
-  <si>
-    <t>7 colors</t>
-  </si>
-  <si>
-    <t>https://www.reebok.com/us/nano-x1-grit-mens-training-shoes/GX0523.html</t>
-  </si>
-  <si>
-    <t>Nano X1 Grit Men's Training Shoes</t>
-  </si>
-  <si>
-    <t>https://assets.reebok.com/images/w_383,h_383,f_auto,q_auto:sensitive,fl_lossy/1cff45ca4d1444c4b21cacb800b77c57_9366/nano-x1-grit-mens-training-shoes.jpg</t>
-  </si>
-  <si>
-    <t>https://assets.reebok.com/images/w_383,h_383,f_auto,q_auto:sensitive,fl_lossy/746d73af8810425283eeacb800a77200_9366/nano-x1-grit-mens-training-shoes.jpg</t>
-  </si>
-  <si>
-    <t>Men Cross Training</t>
   </si>
 </sst>
 </file>
@@ -509,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F45F8EB-B713-4D0E-A28A-194ACE7D2EEF}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,49 +556,49 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="1">
         <v>100</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="2">
@@ -610,44 +607,44 @@
       <c r="O2" s="2">
         <v>44383.146111111113</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>26</v>
+      <c r="P2">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G3" s="1">
         <v>75</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="2">
@@ -656,44 +653,44 @@
       <c r="O3" s="2">
         <v>44383.146111111113</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>26</v>
+      <c r="P3">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G4" s="1">
         <v>75</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="2">
@@ -702,44 +699,44 @@
       <c r="O4" s="2">
         <v>44383.146111111113</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>26</v>
+      <c r="P4">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G5" s="1">
         <v>130</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="2">
@@ -748,8 +745,8 @@
       <c r="O5" s="2">
         <v>44383.146111111113</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>26</v>
+      <c r="P5">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
